--- a/Documents/tpt1838_data.xlsx
+++ b/Documents/tpt1838_data.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="partition_32GB" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="tps6586x" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="BOM" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="partition_32GB" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="tps6586x" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,187 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="149">
+  <si>
+    <t xml:space="preserve">Item #</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHJ00LA-746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hannstar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother board, Rev : 1.0 2011-06-03 TP00028A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP101WX1(SL)(N3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyboard connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PJP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battery connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tegra20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMSC USB3315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High speed usb transciver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCM47511FBG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broadcom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrated Monolithic GPS Receiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLMBG8FEJA-A001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32GB 27nm eMMC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPS Antenna connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vibrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connector is solded with nothing connected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPS396N-V2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPS Antenna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JWWAN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F5521GW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3G Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JHP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earphone connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JWLAN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AW-NH931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AzureWave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEEE 802,11 b/g/n Wireless LAN, Bluetooth and FM Rx Combo Half Mini Card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSPK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaker connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUSB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB A connector</t>
+  </si>
   <si>
     <t xml:space="preserve">PartitionId</t>
   </si>
@@ -297,7 +478,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -325,6 +506,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -375,12 +561,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -465,18 +655,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="64.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,615 +695,221 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="D2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="G2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="G4" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1024</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <f aca="false">F2+G2-1</f>
-        <v>1023</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <f aca="false">G2*I2</f>
-        <v>4194304</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <f aca="false">G2*I2/1024/1024</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="0" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>1024</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>512</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <f aca="false">F3+G3-1</f>
-        <v>1535</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <f aca="false">G3*I3</f>
-        <v>2097152</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <f aca="false">G3*I3/1024/1024</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>1536</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>1536</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <f aca="false">F4+G4-1</f>
-        <v>3071</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <f aca="false">G4*I4</f>
-        <v>6291456</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <f aca="false">G4*I4/1024/1024</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>3072</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>512</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <f aca="false">F5+G5-1</f>
-        <v>3583</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <f aca="false">G5*I5</f>
-        <v>2097152</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <f aca="false">G5*I5/1024/1024</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C11" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="0" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>3584</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1536</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <f aca="false">F6+G6-1</f>
-        <v>5119</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <f aca="false">G6*I6</f>
-        <v>6291456</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <f aca="false">G6*I6/1024/1024</f>
-        <v>6</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="D12" s="0" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="0" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="D13" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>5120</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>2048</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <f aca="false">F7+G7-1</f>
-        <v>7167</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <f aca="false">G7*I7</f>
-        <v>8388608</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <f aca="false">G7*I7/1024/1024</f>
-        <v>8</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="G13" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" s="0" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="0" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>7168</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>196608</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <f aca="false">F8+G8-1</f>
-        <v>203775</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <f aca="false">G8*I8</f>
-        <v>805306368</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <f aca="false">G8*I8/1024/1024</f>
-        <v>768</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="G15" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="G16" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B9" s="0" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>203776</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>230400</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <f aca="false">F9+G9-1</f>
-        <v>434175</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <f aca="false">G9*I9</f>
-        <v>943718400</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <f aca="false">G9*I9/1024/1024</f>
-        <v>900</v>
-      </c>
-      <c r="L9" s="2" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C20" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>434176</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>512</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <f aca="false">F10+G10-1</f>
-        <v>434687</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <f aca="false">G10*I10</f>
-        <v>2097152</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <f aca="false">G10*I10/1024/1024</f>
-        <v>2</v>
-      </c>
-      <c r="L10" s="2" t="s">
+      <c r="G20" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B11" s="0" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <v>434688</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>131072</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <f aca="false">F11+G11-1</f>
-        <v>565759</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <f aca="false">G11*I11</f>
-        <v>536870912</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <f aca="false">G11*I11/1024/1024</f>
-        <v>512</v>
-      </c>
-      <c r="L11" s="2" t="s">
+      <c r="G21" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="M11" s="0" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="0" t="n">
-        <v>565760</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>5120</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <f aca="false">F12+G12-1</f>
-        <v>570879</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <f aca="false">G12*I12</f>
-        <v>20971520</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <f aca="false">G12*I12/1024/1024</f>
-        <v>20</v>
-      </c>
-      <c r="L12" s="2" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="C23" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>570880</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>35840</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <f aca="false">F13+G13-1</f>
-        <v>606719</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <f aca="false">G13*I13</f>
-        <v>146800640</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <f aca="false">G13*I13/1024/1024</f>
-        <v>140</v>
-      </c>
-      <c r="L13" s="2" t="s">
+      <c r="D23" s="0" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>606720</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>5120</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <f aca="false">F14+G14-1</f>
-        <v>611839</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <f aca="false">G14*I14</f>
-        <v>20971520</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <f aca="false">G14*I14/1024/1024</f>
-        <v>20</v>
-      </c>
-      <c r="L14" s="2" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="M14" s="0" t="s">
+      <c r="G24" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="N14" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B15" s="0" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="G25" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>611840</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>7202816</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <f aca="false">F15+G15-1</f>
-        <v>7814655</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <f aca="false">G15*I15</f>
-        <v>29502734336</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <f aca="false">G15*I15/1024/1024</f>
-        <v>28136</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="N15" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>7814656</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>512</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <f aca="false">F16+G16-1</f>
-        <v>7815167</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>4096</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <f aca="false">G16*I16</f>
-        <v>2097152</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <f aca="false">G16*I16/1024/1024</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G20" s="0" t="n">
-        <f aca="false">SUM(G2:G16)</f>
-        <v>7815168</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <f aca="false">SUM(K2:K16)/1024</f>
-        <v>29.8125</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1125,37 +922,697 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.74"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <f aca="false">F2+G2-1</f>
+        <v>1023</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>4096</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <f aca="false">G2*I2</f>
+        <v>4194304</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">G2*I2/1024/1024</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1024</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">F3+G3-1</f>
+        <v>1535</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>4096</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <f aca="false">G3*I3</f>
+        <v>2097152</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">G3*I3/1024/1024</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1536</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1536</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <f aca="false">F4+G4-1</f>
+        <v>3071</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>4096</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <f aca="false">G4*I4</f>
+        <v>6291456</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">G4*I4/1024/1024</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>3072</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <f aca="false">F5+G5-1</f>
+        <v>3583</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>4096</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <f aca="false">G5*I5</f>
+        <v>2097152</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">G5*I5/1024/1024</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>3584</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1536</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <f aca="false">F6+G6-1</f>
+        <v>5119</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>4096</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <f aca="false">G6*I6</f>
+        <v>6291456</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">G6*I6/1024/1024</f>
+        <v>6</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>5120</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>2048</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <f aca="false">F7+G7-1</f>
+        <v>7167</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>4096</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <f aca="false">G7*I7</f>
+        <v>8388608</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">G7*I7/1024/1024</f>
+        <v>8</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>7168</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>196608</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">F8+G8-1</f>
+        <v>203775</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>4096</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <f aca="false">G8*I8</f>
+        <v>805306368</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">G8*I8/1024/1024</f>
+        <v>768</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>203776</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>230400</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">F9+G9-1</f>
+        <v>434175</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>4096</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <f aca="false">G9*I9</f>
+        <v>943718400</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">G9*I9/1024/1024</f>
+        <v>900</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>434176</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <f aca="false">F10+G10-1</f>
+        <v>434687</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>4096</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <f aca="false">G10*I10</f>
+        <v>2097152</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">G10*I10/1024/1024</f>
+        <v>2</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>434688</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>131072</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <f aca="false">F11+G11-1</f>
+        <v>565759</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>4096</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <f aca="false">G11*I11</f>
+        <v>536870912</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <f aca="false">G11*I11/1024/1024</f>
+        <v>512</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>565760</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>5120</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <f aca="false">F12+G12-1</f>
+        <v>570879</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>4096</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <f aca="false">G12*I12</f>
+        <v>20971520</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">G12*I12/1024/1024</f>
+        <v>20</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>570880</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>35840</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <f aca="false">F13+G13-1</f>
+        <v>606719</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>4096</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <f aca="false">G13*I13</f>
+        <v>146800640</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">G13*I13/1024/1024</f>
+        <v>140</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>606720</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>5120</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <f aca="false">F14+G14-1</f>
+        <v>611839</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>4096</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <f aca="false">G14*I14</f>
+        <v>20971520</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">G14*I14/1024/1024</f>
+        <v>20</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>611840</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>7202816</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <f aca="false">F15+G15-1</f>
+        <v>7814655</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>4096</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <f aca="false">G15*I15</f>
+        <v>29502734336</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <f aca="false">G15*I15/1024/1024</f>
+        <v>28136</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>7814656</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <f aca="false">F16+G16-1</f>
+        <v>7815167</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>4096</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <f aca="false">G16*I16</f>
+        <v>2097152</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <f aca="false">G16*I16/1024/1024</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="0" t="n">
+        <f aca="false">SUM(G2:G16)</f>
+        <v>7815168</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">SUM(K2:K16)/1024</f>
+        <v>29.8125</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>725</v>
@@ -1164,15 +1621,15 @@
         <v>1500</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>725</v>
@@ -1181,15 +1638,15 @@
         <v>1500</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3000</v>
@@ -1198,15 +1655,15 @@
         <v>4550</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1250</v>
@@ -1215,15 +1672,15 @@
         <v>3300</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>725</v>
@@ -1232,12 +1689,12 @@
         <v>1500</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>725</v>
@@ -1246,12 +1703,12 @@
         <v>1500</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1250</v>
@@ -1260,12 +1717,12 @@
         <v>3300</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1700</v>
@@ -1274,12 +1731,12 @@
         <v>2475</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1250</v>
@@ -1288,12 +1745,12 @@
         <v>3300</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1250</v>
@@ -1302,12 +1759,12 @@
         <v>1800</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1250</v>
@@ -1316,12 +1773,12 @@
         <v>3300</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1250</v>
@@ -1330,12 +1787,12 @@
         <v>3300</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1250</v>
@@ -1344,7 +1801,7 @@
         <v>3300</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/tpt1838_data.xlsx
+++ b/Documents/tpt1838_data.xlsx
@@ -11,6 +11,7 @@
     <sheet name="BOM" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="partition_32GB" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="tps6586x" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="ODM_DATA" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="164">
   <si>
     <t xml:space="preserve">Item #</t>
   </si>
@@ -105,12 +106,18 @@
     <t xml:space="preserve">U23</t>
   </si>
   <si>
-    <t xml:space="preserve">SMSC USB3315</t>
+    <t xml:space="preserve">USB3315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICROCHIP</t>
   </si>
   <si>
     <t xml:space="preserve">High speed usb transciver</t>
   </si>
   <si>
+    <t xml:space="preserve">U29</t>
+  </si>
+  <si>
     <t xml:space="preserve">BCM47511FBG</t>
   </si>
   <si>
@@ -120,6 +127,9 @@
     <t xml:space="preserve">Integrated Monolithic GPS Receiver</t>
   </si>
   <si>
+    <t xml:space="preserve">U8</t>
+  </si>
+  <si>
     <t xml:space="preserve">KLMBG8FEJA-A001</t>
   </si>
   <si>
@@ -204,6 +214,18 @@
     <t xml:space="preserve">USB A connector</t>
   </si>
   <si>
+    <t xml:space="preserve">U5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embedded Controller</t>
+  </si>
+  <si>
     <t xml:space="preserve">PartitionId</t>
   </si>
   <si>
@@ -469,6 +491,30 @@
   </si>
   <si>
     <t xml:space="preserve">LDO9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFG2TMC_XM2CFGC_CTT_HIZ_EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFG2TMC_XM2CFGC_VREF_DQS_EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFG_MCLK_CLKTRIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFG_DQS3_CLKTRIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFG_DQS2_CLKTRIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFG_DQS1_CLKTRIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFG_DQS0_CLKTRIM</t>
   </si>
 </sst>
 </file>
@@ -478,7 +524,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -506,11 +552,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -561,7 +602,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -570,12 +611,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="180" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="180" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -655,17 +700,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="64.37"/>
   </cols>
@@ -775,43 +820,58 @@
       <c r="C11" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="D11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="G11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>30</v>
+      </c>
       <c r="C12" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>34</v>
+      </c>
       <c r="C13" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>17</v>
@@ -819,7 +879,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>17</v>
@@ -827,83 +887,97 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -928,7 +1002,7 @@
       <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.74"/>
@@ -938,46 +1012,46 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -985,13 +1059,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0</v>
@@ -1020,13 +1094,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1024</v>
@@ -1055,16 +1129,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1536</v>
@@ -1093,13 +1167,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>3072</v>
@@ -1128,16 +1202,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>3584</v>
@@ -1160,8 +1234,8 @@
         <f aca="false">G6*I6/1024/1024</f>
         <v>6</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>90</v>
+      <c r="L6" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1169,16 +1243,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>5120</v>
@@ -1201,8 +1275,8 @@
         <f aca="false">G7*I7/1024/1024</f>
         <v>8</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>94</v>
+      <c r="L7" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1210,16 +1284,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>88</v>
-      </c>
       <c r="E8" s="0" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7168</v>
@@ -1242,14 +1316,14 @@
         <f aca="false">G8*I8/1024/1024</f>
         <v>768</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>98</v>
+      <c r="L8" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1257,13 +1331,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>203776</v>
@@ -1286,14 +1360,14 @@
         <f aca="false">G9*I9/1024/1024</f>
         <v>900</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>103</v>
+      <c r="L9" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1301,13 +1375,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>434176</v>
@@ -1330,8 +1404,8 @@
         <f aca="false">G10*I10/1024/1024</f>
         <v>2</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>107</v>
+      <c r="L10" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1339,7 +1413,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>434688</v>
@@ -1362,14 +1436,14 @@
         <f aca="false">G11*I11/1024/1024</f>
         <v>512</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>109</v>
+      <c r="L11" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1377,7 +1451,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>565760</v>
@@ -1400,8 +1474,8 @@
         <f aca="false">G12*I12/1024/1024</f>
         <v>20</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>112</v>
+      <c r="L12" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1409,10 +1483,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>570880</v>
@@ -1435,8 +1509,8 @@
         <f aca="false">G13*I13/1024/1024</f>
         <v>140</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>114</v>
+      <c r="L13" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1444,7 +1518,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>606720</v>
@@ -1467,14 +1541,14 @@
         <f aca="false">G14*I14/1024/1024</f>
         <v>20</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>116</v>
+      <c r="L14" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1482,13 +1556,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>611840</v>
@@ -1511,14 +1585,14 @@
         <f aca="false">G15*I15/1024/1024</f>
         <v>28136</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>120</v>
+      <c r="L15" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1526,13 +1600,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>7814656</v>
@@ -1588,31 +1662,31 @@
       <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>725</v>
@@ -1621,15 +1695,15 @@
         <v>1500</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>725</v>
@@ -1638,15 +1712,15 @@
         <v>1500</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3000</v>
@@ -1655,15 +1729,15 @@
         <v>4550</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1250</v>
@@ -1672,15 +1746,15 @@
         <v>3300</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>725</v>
@@ -1689,12 +1763,12 @@
         <v>1500</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>725</v>
@@ -1703,12 +1777,12 @@
         <v>1500</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1250</v>
@@ -1717,12 +1791,12 @@
         <v>3300</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1700</v>
@@ -1731,12 +1805,12 @@
         <v>2475</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1250</v>
@@ -1745,12 +1819,12 @@
         <v>3300</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1250</v>
@@ -1759,12 +1833,12 @@
         <v>1800</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1250</v>
@@ -1773,12 +1847,12 @@
         <v>3300</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1250</v>
@@ -1787,12 +1861,12 @@
         <v>3300</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1250</v>
@@ -1801,7 +1875,7 @@
         <v>3300</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1813,4 +1887,187 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:AH3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="3" style="0" width="3.06"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="205.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="W3:AB3"/>
+    <mergeCell ref="AC3:AH3"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Documents/tpt1838_data.xlsx
+++ b/Documents/tpt1838_data.xlsx
@@ -11,7 +11,7 @@
     <sheet name="BOM" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="partition_32GB" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="tps6586x" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="ODM_DATA" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="ODM_DATA (wrong)" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -702,11 +702,11 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
@@ -1002,7 +1002,7 @@
       <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.74"/>
@@ -1659,10 +1659,10 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1897,10 +1897,10 @@
   <dimension ref="B2:AH3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
+      <selection pane="topLeft" activeCell="R10" activeCellId="0" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="3" style="0" width="3.06"/>
   </cols>

--- a/Documents/tpt1838_data.xlsx
+++ b/Documents/tpt1838_data.xlsx
@@ -11,7 +11,6 @@
     <sheet name="BOM" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="partition_32GB" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="tps6586x" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="ODM_DATA (wrong)" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="168">
   <si>
     <t xml:space="preserve">Item #</t>
   </si>
@@ -433,28 +432,31 @@
     <t xml:space="preserve">Initial state</t>
   </si>
   <si>
-    <t xml:space="preserve">Consumer</t>
+    <t xml:space="preserve">SYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vdd_sys</t>
   </si>
   <si>
     <t xml:space="preserve">SM0</t>
   </si>
   <si>
-    <t xml:space="preserve">ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vdd_core</t>
+    <t xml:space="preserve">vdd_sm0,vdd_core</t>
   </si>
   <si>
     <t xml:space="preserve">SM1</t>
   </si>
   <si>
-    <t xml:space="preserve">vdd_cpu</t>
+    <t xml:space="preserve">vdd_sm1,vdd_cpu</t>
   </si>
   <si>
     <t xml:space="preserve">SM2</t>
   </si>
   <si>
-    <t xml:space="preserve">vdd_sm2</t>
+    <t xml:space="preserve">vdd_sm2,vin_ldo*</t>
   </si>
   <si>
     <t xml:space="preserve">LDO0</t>
@@ -463,58 +465,67 @@
     <t xml:space="preserve">OFF</t>
   </si>
   <si>
-    <t xml:space="preserve">vdd_ldo0</t>
+    <t xml:space="preserve">vdd_ldo0,p_cam_avdd</t>
   </si>
   <si>
     <t xml:space="preserve">LDO1</t>
   </si>
   <si>
+    <t xml:space="preserve">vdd_ldo1,avdd_pll*</t>
+  </si>
+  <si>
     <t xml:space="preserve">LDO2</t>
   </si>
   <si>
+    <t xml:space="preserve">vdd_ldo2,vdd_rtc,vdd_aon</t>
+  </si>
+  <si>
     <t xml:space="preserve">LDO3</t>
   </si>
   <si>
+    <t xml:space="preserve">vdd_ldo3,avdd_usb,avdd_usb_pll,avdd_usb*</t>
+  </si>
+  <si>
     <t xml:space="preserve">LDO4</t>
   </si>
   <si>
+    <t xml:space="preserve">vdd_ldo4,avdd_osc,vddio_sys</t>
+  </si>
+  <si>
     <t xml:space="preserve">LDO5</t>
   </si>
   <si>
+    <t xml:space="preserve">vdd_ldo5,vcore_mmc,vmmc</t>
+  </si>
+  <si>
     <t xml:space="preserve">LDO6</t>
   </si>
   <si>
+    <t xml:space="preserve">vdd_ldo6,avdd_vdac,vcsi,vmic</t>
+  </si>
+  <si>
     <t xml:space="preserve">LDO7</t>
   </si>
   <si>
+    <t xml:space="preserve">vdd_ldo7,avdd_hdmi,vdd_fuse</t>
+  </si>
+  <si>
     <t xml:space="preserve">LDO8</t>
   </si>
   <si>
+    <t xml:space="preserve">vdd_ldo8,avdd_hdmi_pll</t>
+  </si>
+  <si>
     <t xml:space="preserve">LDO9</t>
   </si>
   <si>
-    <t xml:space="preserve">Bit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFG2TMC_XM2CFGC_CTT_HIZ_EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFG2TMC_XM2CFGC_VREF_DQS_EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFG_MCLK_CLKTRIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFG_DQS3_CLKTRIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFG_DQS2_CLKTRIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFG_DQS1_CLKTRIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFG_DQS0_CLKTRIM</t>
+    <t xml:space="preserve">vdd_ldo9,avdd_2v85,vdd_ddr_rx,avdd_amp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vdd_rtc_out,vdd_cell</t>
   </si>
 </sst>
 </file>
@@ -602,7 +613,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -613,14 +624,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="180" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="180" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -703,10 +706,10 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
@@ -998,16 +1001,24 @@
   </sheetPr>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="5.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1656,54 +1667,60 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="37.28"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>136</v>
+      <c r="F1" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>725</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>138</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>136</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>725</v>
@@ -1712,64 +1729,79 @@
         <v>1500</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>725</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>142</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>4550</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>4550</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>144</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1250</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>3300</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>3300</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>147</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>725</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>148</v>
       </c>
+      <c r="B7" s="0" t="s">
+        <v>143</v>
+      </c>
       <c r="C7" s="0" t="n">
         <v>725</v>
       </c>
@@ -1777,82 +1809,118 @@
         <v>1500</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>145</v>
+        <v>137</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1250</v>
+        <v>725</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>3300</v>
+        <v>1500</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>1700</v>
+        <v>1250</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>2475</v>
+        <v>3300</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>138</v>
+        <v>146</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>1250</v>
+        <v>1700</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>3300</v>
+        <v>2475</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1250</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1800</v>
+        <v>3300</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>145</v>
+        <v>137</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>153</v>
+        <v>158</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1250</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>3300</v>
+        <v>1800</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>154</v>
+        <v>160</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1250</v>
@@ -1861,12 +1929,18 @@
         <v>3300</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>155</v>
+        <v>162</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1250</v>
@@ -1875,7 +1949,50 @@
         <v>3300</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>3300</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>3300</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>3300</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1887,187 +2004,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B2:AH3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R10" activeCellId="0" sqref="R10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="3" style="0" width="3.06"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="T2" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="U2" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="V2" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="W2" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="X2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y2" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z2" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA2" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC2" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="205.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C3" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="W3:AB3"/>
-    <mergeCell ref="AC3:AH3"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Documents/tpt1838_data.xlsx
+++ b/Documents/tpt1838_data.xlsx
@@ -5,12 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="partition_32GB" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="tps6586x" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Battery" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="AddressMap" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="188">
   <si>
     <t xml:space="preserve">Item #</t>
   </si>
@@ -526,6 +528,66 @@
   </si>
   <si>
     <t xml:space="preserve">vdd_rtc_out,vdd_cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24,1 Wh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3250 mAh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Li-Polymer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">battery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC charger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sine-wave input at 50 to 60 Hz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 V to 240 V ac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000_0000-3FFF_FFFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External Memory (1 GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4000_0000-4FFF_FFFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Memory – iRAM (256 MB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000_0000-5002_3FFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graphics Host Registers (144 KB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5004_0000-5004_1FFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARM Registers (PERIPHBASE) (8 KB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5004_2000-5004_2FFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mselect Registers (4 KB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5400_0000-57FF_FFFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Host Module Direct Reg Access</t>
   </si>
 </sst>
 </file>
@@ -613,7 +675,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -624,6 +686,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -705,11 +771,11 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
@@ -1005,10 +1071,10 @@
       <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.16"/>
@@ -1669,13 +1735,13 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="37.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="37.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2004,4 +2070,172 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:E5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B3:C16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.95"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Documents/tpt1838_data.xlsx
+++ b/Documents/tpt1838_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="189">
   <si>
     <t xml:space="preserve">Item #</t>
   </si>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">SOS</t>
   </si>
   <si>
-    <t xml:space="preserve">an alternative boot partition</t>
+    <t xml:space="preserve">Android Recovery</t>
   </si>
   <si>
     <t xml:space="preserve">data</t>
@@ -323,7 +323,7 @@
     <t xml:space="preserve">LNX</t>
   </si>
   <si>
-    <t xml:space="preserve">Linux Kernel</t>
+    <t xml:space="preserve">Linux Kernel+Ramdisk</t>
   </si>
   <si>
     <t xml:space="preserve">boot.img</t>
@@ -374,6 +374,9 @@
     <t xml:space="preserve">PIA</t>
   </si>
   <si>
+    <t xml:space="preserve">PreInstalled Applications</t>
+  </si>
+  <si>
     <t xml:space="preserve">/dev/block/mmcblk0p6</t>
   </si>
   <si>
@@ -404,7 +407,7 @@
     <t xml:space="preserve">UDA</t>
   </si>
   <si>
-    <t xml:space="preserve">contains the user’s data</t>
+    <t xml:space="preserve">User Data Area</t>
   </si>
   <si>
     <t xml:space="preserve">/dev/block/mmcblk0p10</t>
@@ -675,20 +678,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -765,7 +772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -777,282 +784,282 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="64.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="64.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="1" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1061,658 +1068,661 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="20.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="5.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>1024</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <f aca="false">F2+G2-1</f>
         <v>1023</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>4096</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <f aca="false">G2*I2</f>
         <v>4194304</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <f aca="false">G2*I2/1024/1024</f>
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>1024</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <f aca="false">F3+G3-1</f>
         <v>1535</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>4096</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <f aca="false">G3*I3</f>
         <v>2097152</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <f aca="false">G3*I3/1024/1024</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>1536</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>1536</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <f aca="false">F4+G4-1</f>
         <v>3071</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>4096</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <f aca="false">G4*I4</f>
         <v>6291456</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <f aca="false">G4*I4/1024/1024</f>
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>3072</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <f aca="false">F5+G5-1</f>
         <v>3583</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>4096</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <f aca="false">G5*I5</f>
         <v>2097152</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <f aca="false">G5*I5/1024/1024</f>
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>3584</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>1536</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <f aca="false">F6+G6-1</f>
         <v>5119</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <v>4096</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <f aca="false">G6*I6</f>
         <v>6291456</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <f aca="false">G6*I6/1024/1024</f>
         <v>6</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>5120</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>2048</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <f aca="false">F7+G7-1</f>
         <v>7167</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <v>4096</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <f aca="false">G7*I7</f>
         <v>8388608</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="1" t="n">
         <f aca="false">G7*I7/1024/1024</f>
         <v>8</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>7168</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>196608</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <f aca="false">F8+G8-1</f>
         <v>203775</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="1" t="n">
         <v>4096</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
         <f aca="false">G8*I8</f>
         <v>805306368</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="1" t="n">
         <f aca="false">G8*I8/1024/1024</f>
         <v>768</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="M8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="N8" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>203776</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <v>230400</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <f aca="false">F9+G9-1</f>
         <v>434175</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="1" t="n">
         <v>4096</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="1" t="n">
         <f aca="false">G9*I9</f>
         <v>943718400</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="1" t="n">
         <f aca="false">G9*I9/1024/1024</f>
         <v>900</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="M9" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="N9" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>434176</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <f aca="false">F10+G10-1</f>
         <v>434687</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="1" t="n">
         <v>4096</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="1" t="n">
         <f aca="false">G10*I10</f>
         <v>2097152</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="1" t="n">
         <f aca="false">G10*I10/1024/1024</f>
         <v>2</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="C11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="1" t="n">
         <v>434688</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>131072</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <f aca="false">F11+G11-1</f>
         <v>565759</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="1" t="n">
         <v>4096</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="1" t="n">
         <f aca="false">G11*I11</f>
         <v>536870912</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" s="1" t="n">
         <f aca="false">G11*I11/1024/1024</f>
         <v>512</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M11" s="0" t="s">
+      <c r="L11" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="M11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="0" t="n">
+      <c r="B12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="1" t="n">
         <v>565760</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <v>5120</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <f aca="false">F12+G12-1</f>
         <v>570879</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="1" t="n">
         <v>4096</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="1" t="n">
         <f aca="false">G12*I12</f>
         <v>20971520</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" s="1" t="n">
         <f aca="false">G12*I12/1024/1024</f>
         <v>20</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>119</v>
+      <c r="L12" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="B13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>570880</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <v>35840</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <f aca="false">F13+G13-1</f>
         <v>606719</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="1" t="n">
         <v>4096</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="1" t="n">
         <f aca="false">G13*I13</f>
         <v>146800640</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="1" t="n">
         <f aca="false">G13*I13/1024/1024</f>
         <v>140</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>121</v>
+      <c r="L13" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" s="0" t="n">
+      <c r="B14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="1" t="n">
         <v>606720</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <v>5120</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <f aca="false">F14+G14-1</f>
         <v>611839</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="1" t="n">
         <v>4096</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="1" t="n">
         <f aca="false">G14*I14</f>
         <v>20971520</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="1" t="n">
         <f aca="false">G14*I14/1024/1024</f>
         <v>20</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="M14" s="0" t="s">
+      <c r="L14" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="M14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="C15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>611840</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
         <v>7202816</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <f aca="false">F15+G15-1</f>
         <v>7814655</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="1" t="n">
         <v>4096</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="1" t="n">
         <f aca="false">G15*I15</f>
         <v>29502734336</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="1" t="n">
         <f aca="false">G15*I15/1024/1024</f>
         <v>28136</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="M15" s="0" t="s">
+      <c r="L15" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N15" s="0" t="s">
+      <c r="M15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="0" t="n">
+      <c r="C16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="1" t="n">
         <v>7814656</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <f aca="false">F16+G16-1</f>
         <v>7815167</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="1" t="n">
         <v>4096</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="1" t="n">
         <f aca="false">G16*I16</f>
         <v>2097152</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16" s="1" t="n">
         <f aca="false">G16*I16/1024/1024</f>
         <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="1" t="n">
         <f aca="false">SUM(G2:G16)</f>
         <v>7815168</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20" s="1" t="n">
         <f aca="false">SUM(K2:K16)/1024</f>
         <v>29.8125</v>
       </c>
@@ -1720,7 +1730,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1729,342 +1739,342 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="37.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="37.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="A2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="C3" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="F3" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>725</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>1500</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="C5" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>4550</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>3300</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>725</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>1500</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>3300</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>2475</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>3300</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>3300</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>3300</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>1250</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>3300</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>4550</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1250</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>3300</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>725</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>725</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1250</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>3300</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>1700</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>2475</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1250</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>3300</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>1250</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1800</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>1250</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>3300</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>1250</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>3300</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>1250</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>3300</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>3300</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>3300</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>167</v>
+      <c r="E16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2073,7 +2083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2086,39 +2096,39 @@
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>175</v>
+      <c r="B5" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2127,100 +2137,100 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B3:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="32.95"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>177</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>179</v>
       </c>
+      <c r="C11" s="4" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>181</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="C14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>187</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2232,7 +2242,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
